--- a/Time plans/week 5.xlsx
+++ b/Time plans/week 5.xlsx
@@ -51,9 +51,6 @@
     <t>LCD help</t>
   </si>
   <si>
-    <t>Laser cutting solder stencil</t>
-  </si>
-  <si>
     <t>Testing assembly and reflow</t>
   </si>
   <si>
@@ -93,13 +90,16 @@
     <t>Laser cutting front panel</t>
   </si>
   <si>
-    <t>I2C Test</t>
-  </si>
-  <si>
     <t>Cut front panel</t>
   </si>
   <si>
     <t>Succesfully reflowed test PCB.</t>
+  </si>
+  <si>
+    <t>Laser cutting final solder stencil</t>
+  </si>
+  <si>
+    <t>Implement/test debounce</t>
   </si>
 </sst>
 </file>
@@ -136,7 +136,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -180,8 +180,14 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="darkUp">
+      <patternFill patternType="lightUp">
         <fgColor theme="9" tint="-0.499984740745262"/>
+        <bgColor theme="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor theme="0"/>
       </patternFill>
     </fill>
@@ -462,7 +468,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
@@ -644,6 +650,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="20" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -929,7 +938,7 @@
   <dimension ref="B1:W20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O29" sqref="O29"/>
+      <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1057,7 +1066,7 @@
     </row>
     <row r="5" spans="2:23" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" s="17"/>
       <c r="D5" s="17"/>
@@ -1083,14 +1092,14 @@
     </row>
     <row r="6" spans="2:23" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="32" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="C6" s="35"/>
       <c r="D6" s="35"/>
       <c r="E6" s="35"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="74"/>
       <c r="I6" s="35"/>
       <c r="J6" s="35"/>
       <c r="K6" s="35"/>
@@ -1109,7 +1118,7 @@
     </row>
     <row r="7" spans="2:23" ht="30" x14ac:dyDescent="0.25">
       <c r="B7" s="32" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="35"/>
       <c r="D7" s="35"/>
@@ -1117,9 +1126,9 @@
       <c r="F7" s="35"/>
       <c r="G7" s="35"/>
       <c r="H7" s="35"/>
-      <c r="I7" s="74"/>
-      <c r="J7" s="74"/>
-      <c r="K7" s="74"/>
+      <c r="I7" s="75"/>
+      <c r="J7" s="75"/>
+      <c r="K7" s="75"/>
       <c r="L7" s="16"/>
       <c r="M7" s="17"/>
       <c r="N7" s="17"/>
@@ -1135,7 +1144,7 @@
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B8" s="32" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" s="35"/>
       <c r="D8" s="35"/>
@@ -1187,7 +1196,7 @@
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B10" s="33" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="11"/>
@@ -1211,7 +1220,7 @@
     </row>
     <row r="11" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B11" s="33" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="14"/>
@@ -1233,9 +1242,9 @@
       <c r="T11" s="44"/>
       <c r="U11" s="48"/>
     </row>
-    <row r="12" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:23" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="34" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
@@ -1260,10 +1269,10 @@
     <row r="14" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="49" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" s="64" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D15" s="56"/>
       <c r="E15" s="56"/>
@@ -1271,7 +1280,7 @@
       <c r="G15" s="56"/>
       <c r="H15" s="65"/>
       <c r="I15" s="56" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J15" s="57"/>
       <c r="K15" s="57"/>
@@ -1281,10 +1290,10 @@
     </row>
     <row r="16" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="66" t="s">
         <v>14</v>
-      </c>
-      <c r="C16" s="66" t="s">
-        <v>15</v>
       </c>
       <c r="D16" s="67"/>
       <c r="E16" s="67"/>
@@ -1307,7 +1316,7 @@
     <row r="17" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="45"/>
       <c r="C17" s="66" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D17" s="67"/>
       <c r="E17" s="67"/>
@@ -1329,10 +1338,10 @@
     </row>
     <row r="18" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="66" t="s">
         <v>17</v>
-      </c>
-      <c r="C18" s="66" t="s">
-        <v>18</v>
       </c>
       <c r="D18" s="67"/>
       <c r="E18" s="67"/>
@@ -1354,10 +1363,10 @@
     </row>
     <row r="19" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="45" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19" s="66" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D19" s="67"/>
       <c r="E19" s="67"/>
@@ -1382,7 +1391,7 @@
     <row r="20" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="46"/>
       <c r="C20" s="69" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D20" s="70"/>
       <c r="E20" s="70"/>
